--- a/internal data/Primers.xlsx
+++ b/internal data/Primers.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_BDCC4D8D46F18B11169101B4C45038E5700EE915" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91277b806043e344/MSci Bahler lab/S.-Pombe-MLPs - Github/Supplementary material/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_BDCC4D8D46F18B11169101B4C45038E5700EE915" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1075D45E-9928-3B45-A052-C0DE3759F093}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="primers" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="721">
   <si>
     <t>Serial number</t>
   </si>
@@ -374,9 +379,6 @@
     <t>1524_ht2_fwd2</t>
   </si>
   <si>
-    <t xml:space="preserve">1524 Homologous Recombination with wt </t>
-  </si>
-  <si>
     <t>BK027</t>
   </si>
   <si>
@@ -464,9 +466,6 @@
     <t>1524_del3_fwd</t>
   </si>
   <si>
-    <t xml:space="preserve">Deletion check </t>
-  </si>
-  <si>
     <t>BK035</t>
   </si>
   <si>
@@ -657,9 +656,6 @@
   </si>
   <si>
     <t>srb11_ht2_rvs</t>
-  </si>
-  <si>
-    <t>srb11 Homologous Recombination for gene correction template primers RVS (would call this forward).  Contains two AAA-&gt;AAG synonymous changes to prevent recutting</t>
   </si>
   <si>
     <t>BK050</t>
@@ -893,6 +889,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>http://bahlerweb.cs.ucl.ac.uk/cgi-bin/PPPP/pppp_checking.pl</t>
     </r>
@@ -1495,9 +1492,6 @@
     <t>1234_chk_fwd</t>
   </si>
   <si>
-    <t>Fwd check primer for 1234  deletion ncRNA</t>
-  </si>
-  <si>
     <t>BK119</t>
   </si>
   <si>
@@ -1532,29 +1526,687 @@
   </si>
   <si>
     <t>Right check primer for SPAC607.02c deletion bioneer</t>
+  </si>
+  <si>
+    <t>1524 Homologous Recombination with wt</t>
+  </si>
+  <si>
+    <t>srb11 Homologous Recombination for gene correction template primers RVS (would call this forward). Contains two AAA-&gt;AAG synonymous changes to prevent recutting</t>
+  </si>
+  <si>
+    <t>Fwd check primer for 1234 deletion ncRNA</t>
+  </si>
+  <si>
+    <t>BK122</t>
+  </si>
+  <si>
+    <t>GTGAGCAAAAACAGGAAGGCAAAATGC</t>
+  </si>
+  <si>
+    <t>CAS9_chk_seq_1</t>
+  </si>
+  <si>
+    <t>Sequencing primer for CAS9</t>
+  </si>
+  <si>
+    <t>BK123</t>
+  </si>
+  <si>
+    <t>CCAACCTCCCATTTCCTCCTTACGG</t>
+  </si>
+  <si>
+    <t>CAS9_chk_seq_2</t>
+  </si>
+  <si>
+    <t>BK124</t>
+  </si>
+  <si>
+    <t>GGACAAGAAGTACTCCATTGGGCTCG</t>
+  </si>
+  <si>
+    <t>CAS9_chk_seq_3</t>
+  </si>
+  <si>
+    <t>BK125</t>
+  </si>
+  <si>
+    <t>GACTTGCGGTTGATCTATCTCGCG</t>
+  </si>
+  <si>
+    <t>CAS9_chk_seq_4</t>
+  </si>
+  <si>
+    <t>BK126</t>
+  </si>
+  <si>
+    <t>GCTATGATGAGCACCACCAAGACTTGAC</t>
+  </si>
+  <si>
+    <t>CAS9_chk_seq_5</t>
+  </si>
+  <si>
+    <t>BK127</t>
+  </si>
+  <si>
+    <t>TGCCCAGTCCTTCATCGAAAGGATG</t>
+  </si>
+  <si>
+    <t>CAS9_chk_seq_6</t>
+  </si>
+  <si>
+    <t>BK128</t>
+  </si>
+  <si>
+    <t>TCAAGAAAACTGATCAATGGGATCCGAGATAAGC</t>
+  </si>
+  <si>
+    <t>CAS9_chk_seq_7</t>
+  </si>
+  <si>
+    <t>BK129</t>
+  </si>
+  <si>
+    <t>CGTGGATCAGGAACTGGACATCAATCG</t>
+  </si>
+  <si>
+    <t>CAS9_chk_seq_8</t>
+  </si>
+  <si>
+    <t>BK130</t>
+  </si>
+  <si>
+    <t>CTGAATGCAGTGGTAGGCACTGC</t>
+  </si>
+  <si>
+    <t>CAS9_chk_seq_9</t>
+  </si>
+  <si>
+    <t>BK131</t>
+  </si>
+  <si>
+    <t>GCATCACAATCATGGAGCGATCAAGC</t>
+  </si>
+  <si>
+    <t>CAS9_chk_seq_10</t>
+  </si>
+  <si>
+    <t>BK132</t>
+  </si>
+  <si>
+    <t>GTACTTCGACACCACCATAGACAGAAAGC</t>
+  </si>
+  <si>
+    <t>CAS9_chk_seq_11</t>
+  </si>
+  <si>
+    <t>BK133</t>
+  </si>
+  <si>
+    <t>GAAGGAGACGTAGCTCTTTGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAA</t>
+  </si>
+  <si>
+    <t>mbx2_sg2_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for putting the sgRNA2 for mbx2 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK134</t>
+  </si>
+  <si>
+    <t>CAAAGAGCTACGTCTCCTTCTTCTTCGGTACAGGTTATGTTTTTTGGCAACA</t>
+  </si>
+  <si>
+    <t>mbx2_sg2_rvs</t>
+  </si>
+  <si>
+    <t>reverse primer for putting the sgRNA2 for mbx2 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK135</t>
+  </si>
+  <si>
+    <t>TAGTGATAACGGCTTTCCTGGTCATCGTAGGCAAACGCACTTCGCTCCTTACTACTATCCACAAAGAGCAACCGCGCCATCTTTGAAACAAGTTCCAAC</t>
+  </si>
+  <si>
+    <t>mbx2_ht2_fwd</t>
+  </si>
+  <si>
+    <t>mbx2 Homologous Recombination for phospho-site deletion template primers Fwd</t>
+  </si>
+  <si>
+    <t>BK136</t>
+  </si>
+  <si>
+    <t>TAAGGACCTTCTGATCATAGGTGGACTGGTCTTGTTGCAGTACATGAGTACCCAGATAAGTTGGAACTTGTTTCAAAGATGGCGCGGTTGCTCTTTGTGG</t>
+  </si>
+  <si>
+    <t>mbx2_ht2_rvs</t>
+  </si>
+  <si>
+    <t>mbx2 Homologous Recombination for phospho-site deletion template primers Rvs</t>
+  </si>
+  <si>
+    <t>BK137</t>
+  </si>
+  <si>
+    <t>CAAAGATGGCACAATTAGCAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAA</t>
+  </si>
+  <si>
+    <t>srb10_sg1_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for putting the sgRNA for srb10 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK138</t>
+  </si>
+  <si>
+    <t>TGCTAATTGTGCCATCTTTGTTCTTCGGTACAGGTTATGTTTTTTGGCAACA</t>
+  </si>
+  <si>
+    <t>srb10_sg1_rvs</t>
+  </si>
+  <si>
+    <t>reverse primer for putting the sgRNA for srb10 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK139</t>
+  </si>
+  <si>
+    <t>TGCTGTGTAGAGAAATTCAGCATGAAAATATAGTTAGCTTGGTTCAAGTTTTACTCAAAGATGGGACTATATCTATGGTTGGAGAATACGCCGAACACGA</t>
+  </si>
+  <si>
+    <t>srb10_ht_fwd</t>
+  </si>
+  <si>
+    <t>srb10 Homologous Recombination for kinase-dead enzyme template primers Rvs</t>
+  </si>
+  <si>
+    <t>BK140</t>
+  </si>
+  <si>
+    <t>ATTGATGGTGGAATTTGTCTTGTTCTAGATCGGCTATGGAAATGAATAATTTGCAACAGATCGTGTTCGGCGTATTCTCCAACCATAGATATAGTCCCAT</t>
+  </si>
+  <si>
+    <t>srb10_ht_rvs</t>
+  </si>
+  <si>
+    <t>srb10 Homologous Recombination for kinase-dead enzyme template primers Fwd</t>
+  </si>
+  <si>
+    <t>BK141</t>
+  </si>
+  <si>
+    <t>TCAAAGCAAGTAAGCTCGAATGCTCAAC</t>
+  </si>
+  <si>
+    <t>srb10_chk</t>
+  </si>
+  <si>
+    <t>srb10 mutation check primer</t>
+  </si>
+  <si>
+    <t>BK142</t>
+  </si>
+  <si>
+    <t>ACACATTCATTGTACTCCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAA</t>
+  </si>
+  <si>
+    <t>srb8/med12_sg1_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for putting the sgRNA for srb8/med12 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK143</t>
+  </si>
+  <si>
+    <t>CTGGAGTACAATGAATGTGTTTCTTCGGTACAGGTTATGTTTTTTGGCAACA</t>
+  </si>
+  <si>
+    <t>srb8/med12_sg1_rvs</t>
+  </si>
+  <si>
+    <t>reverse primer for putting the sgRNA for srb8/med12 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK144</t>
+  </si>
+  <si>
+    <t>ACCAGCTCTAATCATTTTTTTTTTTAATATCTGACTAATATTTATATGTTGCTCCAAAAAAGGTGTTTTCTGATCCTTTAATATCTGATTTTGGTAGACA</t>
+  </si>
+  <si>
+    <t>srb8/med12_ht_fwd</t>
+  </si>
+  <si>
+    <t>srb8/med12 Homologous Recombination template primers Rvs</t>
+  </si>
+  <si>
+    <t>BK145</t>
+  </si>
+  <si>
+    <t>GAAGTATTTTCTTGCAAGTAATCATCATGTTGGCATTTCCAATAAAAGAAAGAAAACAGATGTCTACCAAAATCAGATATTAAAGGATCAGAAAACACCT</t>
+  </si>
+  <si>
+    <t>srb8/med12_ht_rvs</t>
+  </si>
+  <si>
+    <t>srb8/med12 Homologous Recombination template primers Fwd</t>
+  </si>
+  <si>
+    <t>BK146</t>
+  </si>
+  <si>
+    <t>CGCTTTTTTGATTGTGTTGGAATACCTG</t>
+  </si>
+  <si>
+    <t>srb8/med12_rvs</t>
+  </si>
+  <si>
+    <t>srb8/med12 deletion reverse check primer</t>
+  </si>
+  <si>
+    <t>BK147</t>
+  </si>
+  <si>
+    <t>TGGGGATGATGATGTTGTGTGTTTTAGAGCTAGAAATAGCAAGTTAAAATAA</t>
+  </si>
+  <si>
+    <t>mbx2_sg3_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for putting the sgRNA3 for mbx2 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK148</t>
+  </si>
+  <si>
+    <t>ACACAACATCATCATCCCCATTCTTCGGTACAGGTTATGTTTTTTGGCAACA</t>
+  </si>
+  <si>
+    <t>mbx2_sg3_rvs</t>
+  </si>
+  <si>
+    <t>reverse primer for putting the sgRNA3 for mbx2 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK149</t>
+  </si>
+  <si>
+    <t>TGTTGTGTGGGAGGAAATGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAA</t>
+  </si>
+  <si>
+    <t>mbx2_sg4_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for putting the sgRNA4 for mbx2 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK150</t>
+  </si>
+  <si>
+    <t>CCATTTCCTCCCACACAACATTCTTCGGTACAGGTTATGTTTTTTGGCAACA</t>
+  </si>
+  <si>
+    <t>mbx2_sg4_rvs</t>
+  </si>
+  <si>
+    <t>reverse primer for putting the sgRNA4 for mbx2 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK151</t>
+  </si>
+  <si>
+    <t>AGTTGTCGTTTCTGGAGACAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAA</t>
+  </si>
+  <si>
+    <t>mbx2_sg5_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for putting the sgRNA5 for mbx2 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK152</t>
+  </si>
+  <si>
+    <t>TGTCTCCAGAAACGACAACTTTCTTCGGTACAGGTTATGTTTTTTGGCAACA</t>
+  </si>
+  <si>
+    <t>mbx2_sg5_rvs</t>
+  </si>
+  <si>
+    <t>reverse primer for putting the sgRNA5 for mbx2 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK153</t>
+  </si>
+  <si>
+    <t>CAGATAAACCCTGCAACCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAA</t>
+  </si>
+  <si>
+    <t>srb8/med12_sg2_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for putting the sgRNA2 for srb8/med12 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK154</t>
+  </si>
+  <si>
+    <t>CTGGTTGCAGGGTTTATCTGTTCTTCGGTACAGGTTATGTTTTTTGGCAACA</t>
+  </si>
+  <si>
+    <t>srb8/med12_sg2_rvs</t>
+  </si>
+  <si>
+    <t>reverse primer for putting the sgRNA2 for srb8/med12 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK155</t>
+  </si>
+  <si>
+    <t>GGAGTACAATGAATGTGTTGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAA</t>
+  </si>
+  <si>
+    <t>srb8/med12_sg3_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for putting the sgRNA3 for srb8/med12 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK156</t>
+  </si>
+  <si>
+    <t>CAACACATTCATTGTACTCCTTCTTCGGTACAGGTTATGTTTTTTGGCAACA</t>
+  </si>
+  <si>
+    <t>srb8/med12_sg3_rvs</t>
+  </si>
+  <si>
+    <t>reverse primer for putting the sgRNA3 for srb8/med12 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK157</t>
+  </si>
+  <si>
+    <t>GCCAAGTCATCAAAATACGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAA</t>
+  </si>
+  <si>
+    <t>srb8/med12_sg4_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for putting the sgRNA4 for srb8/med12 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK158</t>
+  </si>
+  <si>
+    <t>CCGTATTTTGATGACTTGGCTTCTTCGGTACAGGTTATGTTTTTTGGCAACA</t>
+  </si>
+  <si>
+    <t>srb8/med12_sg4_rvs</t>
+  </si>
+  <si>
+    <t>reverse primer for putting the sgRNA4 for srb8/med12 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK159</t>
+  </si>
+  <si>
+    <t>GTAACGCCTTAATAAAACGAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAA</t>
+  </si>
+  <si>
+    <t>srb11_sg3_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for putting the sgRNA3 for srb11 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK160</t>
+  </si>
+  <si>
+    <t>TCGTTTTATTAAGGCGTTACTTCTTCGGTACAGGTTATGTTTTTTGGCAACA</t>
+  </si>
+  <si>
+    <t>srb11_sg3_rvs</t>
+  </si>
+  <si>
+    <t>reverse primer for putting the sgRNA3 for srb11 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK161</t>
+  </si>
+  <si>
+    <t>CATTCGCACAATTTGCAATGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAA</t>
+  </si>
+  <si>
+    <t>srb11_sg4_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for putting the sgRNA4 for srb11 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK162</t>
+  </si>
+  <si>
+    <t>CATTGCAAATTGTGCGAATGTTCTTCGGTACAGGTTATGTTTTTTGGCAACA</t>
+  </si>
+  <si>
+    <t>srb11_sg4_rvs</t>
+  </si>
+  <si>
+    <t>reverse primer for putting the sgRNA4 for srb11 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK163</t>
+  </si>
+  <si>
+    <t>AAATTGTGCGAATGTGAACAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAA</t>
+  </si>
+  <si>
+    <t>srb11_sg5_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for putting the sgRNA5 for srb11 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK164</t>
+  </si>
+  <si>
+    <t>TGTTCACATTCGCACAATTTTTCTTCGGTACAGGTTATGTTTTTTGGCAACA</t>
+  </si>
+  <si>
+    <t>srb11_sg5_rvs</t>
+  </si>
+  <si>
+    <t>reverse primer for putting the sgRNA5 for srb11 on the plasmid</t>
+  </si>
+  <si>
+    <t>BK165</t>
+  </si>
+  <si>
+    <t>AATAGTAAAATCTGTGACACTGTTTTTTATTATCTCTTATGATATTTAAGGGTCAATCAGCTTAAAATATCGTGTGATATCGGATCCCCGGGTTAATTAA</t>
+  </si>
+  <si>
+    <t>srb11-NAT_HR_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for srb11 Homologous recombination method</t>
+  </si>
+  <si>
+    <t>BK166</t>
+  </si>
+  <si>
+    <t>TCAGCAATAAAGAAAAATCTAATTATAGTTTTCGTTTTTAACAAAATTTGAGGCTCTAAATGTATAGTGTATTCAAGAAGGAATTCGAGCTCGTTTAAAC</t>
+  </si>
+  <si>
+    <t>rvs</t>
+  </si>
+  <si>
+    <t>reverse primer for srb11 Homologous recombination method</t>
+  </si>
+  <si>
+    <t>BK167</t>
+  </si>
+  <si>
+    <t>TATACCTGAATTTTGGTTAACCTCGTCGACTCTTTTTCTCTTTTCTCGTCAAACCTTACTAAATATATACAACGTCTAATCGGATCCCCGGGTTAATTAA</t>
+  </si>
+  <si>
+    <t>mbx2-NAT_HR_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for mbx2 Homologous recombination method</t>
+  </si>
+  <si>
+    <t>BK168</t>
+  </si>
+  <si>
+    <t>TACTTGTATACGATTCATTAGATCCAGGGAGGACACATGATGAAGACATTTGAAAGGGAGATTGACTTCTATGATATTCTGAATTCGAGCTCGTTTAAAC</t>
+  </si>
+  <si>
+    <t>reverse primer for mbx2 Homologous recombination method</t>
+  </si>
+  <si>
+    <t>BK169</t>
+  </si>
+  <si>
+    <t>TAAACCCCATCTGCTGTTTTCT</t>
+  </si>
+  <si>
+    <t>mbx2-NAT_chk_fwd</t>
+  </si>
+  <si>
+    <t>forward primer for mbx2 Homologous recombination check</t>
+  </si>
+  <si>
+    <t>BK170</t>
+  </si>
+  <si>
+    <t>AACTATTGGTGCTTGGATTGCT</t>
+  </si>
+  <si>
+    <t>mbx2-NAT_chk_rvs</t>
+  </si>
+  <si>
+    <t>reverse primer for mbx2 Homologous recombination check</t>
+  </si>
+  <si>
+    <t>BK171</t>
+  </si>
+  <si>
+    <t>ATGATTGCTAACTTCAACAGGCCA</t>
+  </si>
+  <si>
+    <t>srb8/med12_fwd</t>
+  </si>
+  <si>
+    <t>srb8/med12 deletion forward check primer</t>
+  </si>
+  <si>
+    <t>BK172</t>
+  </si>
+  <si>
+    <t>srb10_chk_fwd</t>
+  </si>
+  <si>
+    <t>forward primer to amplify srb10 and see whether kinase-dead mutation worked</t>
+  </si>
+  <si>
+    <t>BK173</t>
+  </si>
+  <si>
+    <t>ATTATCGTTAGGCGCTTGATGT</t>
+  </si>
+  <si>
+    <t>srb10_chk_rvs</t>
+  </si>
+  <si>
+    <t>reverse primer to amplify srb10 and see whether kinase-dead mutation worked</t>
+  </si>
+  <si>
+    <t>BK174</t>
+  </si>
+  <si>
+    <t>TAGCAACGATAACAAAGACGCA</t>
+  </si>
+  <si>
+    <t>fkh2_chk_lft</t>
+  </si>
+  <si>
+    <t>Left check primer for fkh2 deletion bioneer</t>
+  </si>
+  <si>
+    <t>BK175</t>
+  </si>
+  <si>
+    <t>AAACTTCCGTTTGCACAAGAAT</t>
+  </si>
+  <si>
+    <t>fkh2_chk_rght</t>
+  </si>
+  <si>
+    <t>Right check primer for fkh2 deletion bioneer</t>
+  </si>
+  <si>
+    <t>BK176</t>
+  </si>
+  <si>
+    <t>TGTCTGGCAAGCAAAAGTTCTA</t>
+  </si>
+  <si>
+    <t>mfs1_chk_lft</t>
+  </si>
+  <si>
+    <t>Left check primer for mfs1 deletion bioneer</t>
+  </si>
+  <si>
+    <t>BK177</t>
+  </si>
+  <si>
+    <t>TATCGCCAAGCTCCATTTTATT</t>
+  </si>
+  <si>
+    <t>mfs1_chk_rght</t>
+  </si>
+  <si>
+    <t>Right check primer for mfs1 deletion bioneer</t>
+  </si>
+  <si>
+    <t>BK178</t>
+  </si>
+  <si>
+    <t>AACTGGCAAAAATCTGTCGAAT</t>
+  </si>
+  <si>
+    <t>icp55_chk_lft</t>
+  </si>
+  <si>
+    <t>Left check primer for icp55 deletion bioneer</t>
+  </si>
+  <si>
+    <t>BK179</t>
+  </si>
+  <si>
+    <t>GAATCATACACTTCGAATGCCA</t>
+  </si>
+  <si>
+    <t>icp55_chk_rght</t>
+  </si>
+  <si>
+    <t>Right check primer for icp55 deletion bioneer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF344043"/>
-      <name val="&quot;Proxima Nova&quot;"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1575,12 +2227,7 @@
       <sz val="10"/>
       <color rgb="FF344043"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1588,6 +2235,7 @@
       <sz val="10"/>
       <color rgb="FF0DAF49"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1595,6 +2243,7 @@
       <sz val="10"/>
       <color rgb="FF5548CE"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1602,36 +2251,27 @@
       <sz val="10"/>
       <color rgb="FFD10E0E"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF980000"/>
-      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1639,25 +2279,36 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF344043"/>
+      <name val="Proxima Nova"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1668,48 +2319,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF38761D"/>
-        <bgColor rgb="FF38761D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-        <bgColor rgb="FFEA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDBB3"/>
-        <bgColor rgb="FFFDDBB3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF46F5E2"/>
-        <bgColor rgb="FF46F5E2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7B7B7"/>
-        <bgColor rgb="FFB7B7B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF274E13"/>
-        <bgColor rgb="FF274E13"/>
       </patternFill>
     </fill>
   </fills>
@@ -1725,45 +2334,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1982,2243 +2569,3113 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="48.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A30" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A31" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A32" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="C32" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A33" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="C33" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A34" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="C34" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A35" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="C35" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A36" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A38" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A39" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="B39" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="B40" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="B42" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="B43" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A45" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
+      <c r="C46" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="B47" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
+      <c r="C49" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="B51" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
+      <c r="C51" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="B52" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
+      <c r="C52" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="B54" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" ht="13">
+      <c r="A55" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="B55" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="C55" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" ht="13">
+      <c r="A56" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1" t="s">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" ht="13">
+      <c r="A57" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="C57" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="13">
+      <c r="A58" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="B58" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1" t="s">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" ht="13">
+      <c r="A59" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="13">
+      <c r="A60" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="B60" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="C60" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" ht="13">
+      <c r="A61" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="C61" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
+      <c r="D61" s="5"/>
+      <c r="E61" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" ht="13">
+      <c r="A62" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="C62" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="23" t="s">
+      <c r="D62" s="5"/>
+      <c r="E62" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" ht="13">
+      <c r="A63" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="B63" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23" t="s">
+      <c r="C63" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1" t="s">
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" ht="13">
+      <c r="A64" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="B64" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" ht="13">
+      <c r="A65" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="B65" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="C65" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="1" t="s">
+      <c r="D65" s="5"/>
+      <c r="E65" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" ht="13">
+      <c r="A66" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="B66" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="C66" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F65" s="22"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1" t="s">
+      <c r="D66" s="5"/>
+      <c r="E66" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" ht="13">
+      <c r="A67" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="B67" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="C67" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F66" s="22"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="1" t="s">
+      <c r="D67" s="5"/>
+      <c r="E67" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" ht="13">
+      <c r="A68" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="B68" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1" t="s">
+      <c r="D68" s="5"/>
+      <c r="E68" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" ht="13">
+      <c r="A69" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="B69" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="C69" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
+      <c r="D69" s="5"/>
+      <c r="E69" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" ht="13">
+      <c r="A70" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="B70" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="C70" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F69" s="22"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="1" t="s">
+      <c r="D70" s="5"/>
+      <c r="E70" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" ht="13">
+      <c r="A71" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="B71" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="C71" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
+      <c r="D71" s="5"/>
+      <c r="E71" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" ht="13">
+      <c r="A72" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F71" s="27"/>
-      <c r="G71" s="28" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B72" s="26" t="s">
+    </row>
+    <row r="73" spans="1:7" ht="13">
+      <c r="A73" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="B73" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="C73" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F72" s="27"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="1" t="s">
+      <c r="D73" s="5"/>
+      <c r="E73" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" ht="13">
+      <c r="A74" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="B74" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="C74" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F73" s="27"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1" t="s">
+      <c r="D74" s="5"/>
+      <c r="E74" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" ht="13">
+      <c r="A75" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="B75" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="C75" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F74" s="27"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="1" t="s">
+      <c r="D75" s="5"/>
+      <c r="E75" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" ht="13">
+      <c r="A76" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="B76" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="C76" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F75" s="27"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="1" t="s">
+      <c r="D76" s="5"/>
+      <c r="E76" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" ht="13">
+      <c r="A77" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="B77" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="C77" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F76" s="27"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="1" t="s">
+      <c r="D77" s="5"/>
+      <c r="E77" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" ht="13">
+      <c r="A78" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="B78" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="C78" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F77" s="27"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="1" t="s">
+      <c r="D78" s="5"/>
+      <c r="E78" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" ht="13">
+      <c r="A79" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="B79" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="C79" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F78" s="27"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="1" t="s">
+      <c r="D79" s="5"/>
+      <c r="E79" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" ht="13">
+      <c r="A80" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="B80" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="C80" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="F79" s="27"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="1" t="s">
+      <c r="D80" s="5"/>
+      <c r="E80" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:6" ht="13">
+      <c r="A81" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="B81" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="C81" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F80" s="27"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1" t="s">
+      <c r="D81" s="5"/>
+      <c r="E81" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="1:6" ht="13">
+      <c r="A82" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="B82" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="C82" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F81" s="27"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1" t="s">
+      <c r="D82" s="5"/>
+      <c r="E82" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:6" ht="13">
+      <c r="A83" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="B83" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="C83" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F82" s="27"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
+      <c r="D83" s="5"/>
+      <c r="E83" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" ht="13">
+      <c r="A84" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="B84" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="C84" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F83" s="27"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1" t="s">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:6" ht="13">
+      <c r="A85" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="B85" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="C85" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="F84" s="27"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1" t="s">
+      <c r="D85" s="5"/>
+      <c r="E85" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" ht="13">
+      <c r="A86" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="B86" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="C86" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="F85" s="27"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1" t="s">
+      <c r="D86" s="5"/>
+      <c r="E86" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" ht="13">
+      <c r="A87" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="B87" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="C87" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="F86" s="27"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1" t="s">
+      <c r="D87" s="5"/>
+      <c r="E87" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="1:6" ht="13">
+      <c r="A88" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="B88" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="C88" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="F87" s="27"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1" t="s">
+      <c r="D88" s="5"/>
+      <c r="E88" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:6" ht="13">
+      <c r="A89" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="B89" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="C89" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="F88" s="27"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1" t="s">
+      <c r="D89" s="5"/>
+      <c r="E89" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" ht="13">
+      <c r="A90" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="B90" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="C90" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="F89" s="27"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1" t="s">
+      <c r="D90" s="5"/>
+      <c r="E90" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B90" s="26" t="s">
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="1:6" ht="13">
+      <c r="A91" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="B91" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="C91" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="F90" s="27"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1" t="s">
+      <c r="D91" s="5"/>
+      <c r="E91" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="1:6" ht="13">
+      <c r="A92" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="B92" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="C92" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="F91" s="27"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1" t="s">
+      <c r="D92" s="5"/>
+      <c r="E92" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="1:6" ht="13">
+      <c r="A93" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="B93" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="C93" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F92" s="27"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1" t="s">
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:6" ht="13">
+      <c r="A94" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="B94" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="C94" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="F93" s="27"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1" t="s">
+      <c r="D94" s="5"/>
+      <c r="E94" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6" ht="13">
+      <c r="A95" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="B95" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="C95" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="F94" s="27"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1" t="s">
+      <c r="D95" s="5"/>
+      <c r="E95" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B95" s="26" t="s">
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="1:6" ht="13">
+      <c r="A96" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="B96" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="C96" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="F95" s="27"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1" t="s">
+      <c r="D96" s="5"/>
+      <c r="E96" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B96" s="26" t="s">
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="1:6" ht="13">
+      <c r="A97" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="B97" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="C97" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="F96" s="27"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1" t="s">
+      <c r="D97" s="5"/>
+      <c r="E97" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:6" ht="13">
+      <c r="A98" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="B98" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="C98" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="F97" s="27"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
+      <c r="D98" s="5"/>
+      <c r="E98" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="1:6" ht="13">
+      <c r="A99" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="B99" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="C99" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="F98" s="27"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1" t="s">
+      <c r="D99" s="5"/>
+      <c r="E99" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="1:6" ht="13">
+      <c r="A100" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="B100" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="C100" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="F99" s="27"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
+      <c r="D100" s="5"/>
+      <c r="E100" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="1:6" ht="13">
+      <c r="A101" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="B101" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="C101" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="F100" s="27"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1" t="s">
+      <c r="D101" s="5"/>
+      <c r="E101" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B101" s="26" t="s">
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="1:6" ht="13">
+      <c r="A102" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="B102" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="C102" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="F101" s="27"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1" t="s">
+      <c r="D102" s="5"/>
+      <c r="E102" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B102" s="26" t="s">
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="1:6" ht="13">
+      <c r="A103" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="B103" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="C103" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="F102" s="27"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1" t="s">
+      <c r="D103" s="5"/>
+      <c r="E103" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B103" s="26" t="s">
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="1:6" ht="13">
+      <c r="A104" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="B104" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="C104" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="F103" s="27"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1" t="s">
+      <c r="D104" s="5"/>
+      <c r="E104" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B104" s="26" t="s">
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="1:6" ht="13">
+      <c r="A105" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="B105" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="C105" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="F104" s="27"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1" t="s">
+      <c r="D105" s="5"/>
+      <c r="E105" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B105" s="29" t="s">
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="1:6" ht="13">
+      <c r="A106" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="B106" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="C106" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="F105" s="27"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1" t="s">
+      <c r="D106" s="5"/>
+      <c r="E106" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B106" s="29" t="s">
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="1:6" ht="13">
+      <c r="A107" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="B107" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="C107" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="F106" s="27"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1" t="s">
+      <c r="D107" s="5"/>
+      <c r="E107" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="1:6" ht="13">
+      <c r="A108" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="B108" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="C108" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="F107" s="27"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1" t="s">
+      <c r="D108" s="5"/>
+      <c r="E108" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B108" s="29" t="s">
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="1:6" ht="13">
+      <c r="A109" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="B109" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="C109" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="F108" s="27"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1" t="s">
+      <c r="D109" s="5"/>
+      <c r="E109" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B109" s="29" t="s">
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="1:6" ht="13">
+      <c r="A110" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="B110" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="C110" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="F109" s="27"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1" t="s">
+      <c r="D110" s="5"/>
+      <c r="E110" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B110" s="29" t="s">
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="1:6" ht="13">
+      <c r="A111" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="B111" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="C111" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="F110" s="27"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1" t="s">
+      <c r="D111" s="5"/>
+      <c r="E111" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B111" s="29" t="s">
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="1:6" ht="13">
+      <c r="A112" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="B112" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="C112" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="F111" s="27"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1" t="s">
+      <c r="D112" s="5"/>
+      <c r="E112" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B112" s="29" t="s">
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" ht="13">
+      <c r="A113" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="B113" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="C113" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F112" s="27"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="1" t="s">
+      <c r="D113" s="5"/>
+      <c r="E113" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="1:7" ht="13">
+      <c r="A114" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="B114" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="C114" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="F113" s="27"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="1" t="s">
+      <c r="D114" s="5"/>
+      <c r="E114" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B114" s="29" t="s">
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="1:7" ht="13">
+      <c r="A115" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="B115" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="C115" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="F114" s="27"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="1" t="s">
+      <c r="D115" s="5"/>
+      <c r="E115" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B115" s="29" t="s">
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="1:7" ht="13">
+      <c r="A116" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="B116" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="C116" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="F115" s="27"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="1" t="s">
+      <c r="D116" s="5"/>
+      <c r="E116" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B116" s="29" t="s">
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="1:7" ht="13">
+      <c r="A117" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="C117" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="F116" s="27"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="1" t="s">
+      <c r="D117" s="5"/>
+      <c r="E117" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="1:7" ht="13">
+      <c r="A118" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="C118" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="F117" s="27"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="1" t="s">
+      <c r="D118" s="5"/>
+      <c r="E118" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="1:7" ht="13">
+      <c r="A119" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="C119" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="F118" s="27"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="1" t="s">
+      <c r="D119" s="5"/>
+      <c r="E119" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="1:7" ht="13">
+      <c r="A120" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="C120" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="F119" s="27"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="1" t="s">
+      <c r="D120" s="5"/>
+      <c r="E120" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="1:7" ht="13">
+      <c r="A121" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="C121" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="F120" s="27"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="1" t="s">
+      <c r="D121" s="5"/>
+      <c r="E121" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="1:7" ht="13">
+      <c r="A122" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B122" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C122" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="D122" s="5"/>
+      <c r="E122" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="F121" s="27"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="1" t="s">
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="1:7" ht="13">
+      <c r="A123" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B123" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C123" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="D123" s="5"/>
+      <c r="E123" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="F122" s="27"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="30" t="s">
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="1:7" ht="13">
+      <c r="A124" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B123" s="31" t="s">
+      <c r="B124" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="C123" s="30" t="s">
+      <c r="C124" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="E123" s="30" t="s">
+      <c r="D124" s="5"/>
+      <c r="E124" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="F123" s="27"/>
-      <c r="G123" s="30"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="B124" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="C124" s="30" t="s">
-        <v>500</v>
-      </c>
-      <c r="E124" s="30" t="s">
+      <c r="F124" s="5"/>
+      <c r="G124" s="9"/>
+    </row>
+    <row r="125" spans="1:7" ht="13">
+      <c r="A125" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="F124" s="27"/>
-      <c r="G124" s="30"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="D125" s="30"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="D126" s="30"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="B127" s="26"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="B128" s="26"/>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="26"/>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="26"/>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="26"/>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="26"/>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="26"/>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="26"/>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="26"/>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="26"/>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="26"/>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="26"/>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="26"/>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="26"/>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="26"/>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="26"/>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="26"/>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="26"/>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="26"/>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="26"/>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="26"/>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="26"/>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="26"/>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="26"/>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="26"/>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="26"/>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="26"/>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="26"/>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="26"/>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="26"/>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="26"/>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="26"/>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="26"/>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="26"/>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="26"/>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="26"/>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="26"/>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="26"/>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="26"/>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="26"/>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="26"/>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="26"/>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="26"/>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="26"/>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="26"/>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="26"/>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="26"/>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="26"/>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="26"/>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="26"/>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="26"/>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="26"/>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="26"/>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="26"/>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="26"/>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="26"/>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="26"/>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="26"/>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="26"/>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="26"/>
-    </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="26"/>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="26"/>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="26"/>
-    </row>
-    <row r="190" spans="2:2">
-      <c r="B190" s="26"/>
-    </row>
-    <row r="191" spans="2:2">
-      <c r="B191" s="26"/>
-    </row>
-    <row r="192" spans="2:2">
-      <c r="B192" s="26"/>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="26"/>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="26"/>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="26"/>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="26"/>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="26"/>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="26"/>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="26"/>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="26"/>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="26"/>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="26"/>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="26"/>
-    </row>
-    <row r="204" spans="2:2">
-      <c r="B204" s="26"/>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="26"/>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206" s="26"/>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" s="26"/>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="26"/>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="26"/>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="26"/>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="26"/>
-    </row>
-    <row r="212" spans="2:2">
-      <c r="B212" s="26"/>
-    </row>
-    <row r="213" spans="2:2">
-      <c r="B213" s="26"/>
-    </row>
-    <row r="214" spans="2:2">
-      <c r="B214" s="26"/>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215" s="26"/>
-    </row>
-    <row r="216" spans="2:2">
-      <c r="B216" s="26"/>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="26"/>
-    </row>
-    <row r="218" spans="2:2">
-      <c r="B218" s="26"/>
-    </row>
-    <row r="219" spans="2:2">
-      <c r="B219" s="26"/>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="26"/>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="26"/>
-    </row>
-    <row r="222" spans="2:2">
-      <c r="B222" s="26"/>
-    </row>
-    <row r="223" spans="2:2">
-      <c r="B223" s="26"/>
-    </row>
-    <row r="224" spans="2:2">
-      <c r="B224" s="26"/>
-    </row>
-    <row r="225" spans="2:2">
-      <c r="B225" s="26"/>
-    </row>
-    <row r="226" spans="2:2">
-      <c r="B226" s="26"/>
+      <c r="B125" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="9"/>
+    </row>
+    <row r="126" spans="1:7" ht="13">
+      <c r="A126" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:7" ht="13">
+      <c r="A127" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="1:7" ht="13">
+      <c r="A128" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="1:6" ht="13">
+      <c r="A129" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="1:6" ht="13">
+      <c r="A130" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="1:6" ht="13">
+      <c r="A131" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="1:6" ht="13">
+      <c r="A132" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="1:6" ht="13">
+      <c r="A133" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="1:6" ht="13">
+      <c r="A134" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="1:6" ht="13">
+      <c r="A135" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" spans="1:6" ht="13">
+      <c r="A136" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137" spans="1:6" ht="13">
+      <c r="A137" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="1:6" ht="13">
+      <c r="A138" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" spans="1:6" ht="13">
+      <c r="A139" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="1:6" ht="13">
+      <c r="A140" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" spans="1:6" ht="13">
+      <c r="A141" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142" spans="1:6" ht="13">
+      <c r="A142" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143" spans="1:6" ht="13">
+      <c r="A143" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" spans="1:6" ht="13">
+      <c r="A144" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" spans="1:6" ht="13">
+      <c r="A145" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146" spans="1:6" ht="13">
+      <c r="A146" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F146" s="5"/>
+    </row>
+    <row r="147" spans="1:6" ht="13">
+      <c r="A147" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F147" s="5"/>
+    </row>
+    <row r="148" spans="1:6" ht="13">
+      <c r="A148" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="F148" s="5"/>
+    </row>
+    <row r="149" spans="1:6" ht="13">
+      <c r="A149" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F149" s="5"/>
+    </row>
+    <row r="150" spans="1:6" ht="13">
+      <c r="A150" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="F150" s="5"/>
+    </row>
+    <row r="151" spans="1:6" ht="13">
+      <c r="A151" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152" spans="1:6" ht="13">
+      <c r="A152" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" spans="1:6" ht="13">
+      <c r="A153" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="F153" s="5"/>
+    </row>
+    <row r="154" spans="1:6" ht="13">
+      <c r="A154" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="F154" s="5"/>
+    </row>
+    <row r="155" spans="1:6" ht="13">
+      <c r="A155" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="F155" s="5"/>
+    </row>
+    <row r="156" spans="1:6" ht="13">
+      <c r="A156" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" spans="1:6" ht="13">
+      <c r="A157" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F157" s="5"/>
+    </row>
+    <row r="158" spans="1:6" ht="13">
+      <c r="A158" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="F158" s="5"/>
+    </row>
+    <row r="159" spans="1:6" ht="13">
+      <c r="A159" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="F159" s="5"/>
+    </row>
+    <row r="160" spans="1:6" ht="13">
+      <c r="A160" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="F160" s="5"/>
+    </row>
+    <row r="161" spans="1:6" ht="13">
+      <c r="A161" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F161" s="5"/>
+    </row>
+    <row r="162" spans="1:6" ht="13">
+      <c r="A162" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="F162" s="5"/>
+    </row>
+    <row r="163" spans="1:6" ht="13">
+      <c r="A163" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F163" s="5"/>
+    </row>
+    <row r="164" spans="1:6" ht="13">
+      <c r="A164" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="F164" s="5"/>
+    </row>
+    <row r="165" spans="1:6" ht="13">
+      <c r="A165" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="F165" s="5"/>
+    </row>
+    <row r="166" spans="1:6" ht="13">
+      <c r="A166" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="F166" s="5"/>
+    </row>
+    <row r="167" spans="1:6" ht="13">
+      <c r="A167" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="F167" s="5"/>
+    </row>
+    <row r="168" spans="1:6" ht="13">
+      <c r="A168" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="F168" s="5"/>
+    </row>
+    <row r="169" spans="1:6" ht="13">
+      <c r="A169" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F169" s="5"/>
+    </row>
+    <row r="170" spans="1:6" ht="13">
+      <c r="A170" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="F170" s="5"/>
+    </row>
+    <row r="171" spans="1:6" ht="13">
+      <c r="A171" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="F171" s="5"/>
+    </row>
+    <row r="172" spans="1:6" ht="13">
+      <c r="A172" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="F172" s="5"/>
+    </row>
+    <row r="173" spans="1:6" ht="13">
+      <c r="A173" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="F173" s="5"/>
+    </row>
+    <row r="174" spans="1:6" ht="13">
+      <c r="A174" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="F174" s="5"/>
+    </row>
+    <row r="175" spans="1:6" ht="13">
+      <c r="A175" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F175" s="5"/>
+    </row>
+    <row r="176" spans="1:6" ht="13">
+      <c r="A176" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="F176" s="5"/>
+    </row>
+    <row r="177" spans="1:6" ht="13">
+      <c r="A177" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F177" s="5"/>
+    </row>
+    <row r="178" spans="1:6" ht="13">
+      <c r="A178" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179" spans="1:6" ht="13">
+      <c r="A179" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="1:6" ht="13">
+      <c r="A180" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="F180" s="5"/>
+    </row>
+    <row r="181" spans="1:6" ht="13">
+      <c r="A181" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="F181" s="5"/>
+    </row>
+    <row r="182" spans="1:6" ht="13">
+      <c r="A182" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="F182" s="5"/>
+    </row>
+    <row r="183" spans="1:6" ht="13">
+      <c r="B183" s="6"/>
+    </row>
+    <row r="184" spans="1:6" ht="13">
+      <c r="B184" s="6"/>
+    </row>
+    <row r="185" spans="1:6" ht="13">
+      <c r="B185" s="6"/>
+    </row>
+    <row r="186" spans="1:6" ht="13">
+      <c r="B186" s="6"/>
+    </row>
+    <row r="187" spans="1:6" ht="13">
+      <c r="B187" s="6"/>
+    </row>
+    <row r="188" spans="1:6" ht="13">
+      <c r="B188" s="6"/>
+    </row>
+    <row r="189" spans="1:6" ht="13">
+      <c r="B189" s="6"/>
+    </row>
+    <row r="190" spans="1:6" ht="13">
+      <c r="B190" s="6"/>
+    </row>
+    <row r="191" spans="1:6" ht="13">
+      <c r="B191" s="6"/>
+    </row>
+    <row r="192" spans="1:6" ht="13">
+      <c r="B192" s="6"/>
+    </row>
+    <row r="193" spans="2:2" ht="13">
+      <c r="B193" s="6"/>
+    </row>
+    <row r="194" spans="2:2" ht="13">
+      <c r="B194" s="6"/>
+    </row>
+    <row r="195" spans="2:2" ht="13">
+      <c r="B195" s="6"/>
+    </row>
+    <row r="196" spans="2:2" ht="13">
+      <c r="B196" s="6"/>
+    </row>
+    <row r="197" spans="2:2" ht="13">
+      <c r="B197" s="6"/>
+    </row>
+    <row r="198" spans="2:2" ht="13">
+      <c r="B198" s="6"/>
+    </row>
+    <row r="199" spans="2:2" ht="13">
+      <c r="B199" s="6"/>
+    </row>
+    <row r="200" spans="2:2" ht="13">
+      <c r="B200" s="6"/>
+    </row>
+    <row r="201" spans="2:2" ht="13">
+      <c r="B201" s="6"/>
+    </row>
+    <row r="202" spans="2:2" ht="13">
+      <c r="B202" s="6"/>
+    </row>
+    <row r="203" spans="2:2" ht="13">
+      <c r="B203" s="6"/>
+    </row>
+    <row r="204" spans="2:2" ht="13">
+      <c r="B204" s="6"/>
+    </row>
+    <row r="205" spans="2:2" ht="13">
+      <c r="B205" s="6"/>
+    </row>
+    <row r="206" spans="2:2" ht="13">
+      <c r="B206" s="6"/>
+    </row>
+    <row r="207" spans="2:2" ht="13">
+      <c r="B207" s="6"/>
+    </row>
+    <row r="208" spans="2:2" ht="13">
+      <c r="B208" s="6"/>
+    </row>
+    <row r="209" spans="2:2" ht="13">
+      <c r="B209" s="6"/>
+    </row>
+    <row r="210" spans="2:2" ht="13">
+      <c r="B210" s="6"/>
+    </row>
+    <row r="211" spans="2:2" ht="13">
+      <c r="B211" s="6"/>
+    </row>
+    <row r="212" spans="2:2" ht="13">
+      <c r="B212" s="6"/>
+    </row>
+    <row r="213" spans="2:2" ht="13">
+      <c r="B213" s="6"/>
+    </row>
+    <row r="214" spans="2:2" ht="13">
+      <c r="B214" s="6"/>
+    </row>
+    <row r="215" spans="2:2" ht="13">
+      <c r="B215" s="6"/>
+    </row>
+    <row r="216" spans="2:2" ht="13">
+      <c r="B216" s="6"/>
+    </row>
+    <row r="217" spans="2:2" ht="13">
+      <c r="B217" s="6"/>
+    </row>
+    <row r="218" spans="2:2" ht="13">
+      <c r="B218" s="6"/>
+    </row>
+    <row r="219" spans="2:2" ht="13">
+      <c r="B219" s="6"/>
+    </row>
+    <row r="220" spans="2:2" ht="13">
+      <c r="B220" s="6"/>
+    </row>
+    <row r="221" spans="2:2" ht="13">
+      <c r="B221" s="6"/>
+    </row>
+    <row r="222" spans="2:2" ht="13">
+      <c r="B222" s="6"/>
+    </row>
+    <row r="223" spans="2:2" ht="13">
+      <c r="B223" s="6"/>
+    </row>
+    <row r="224" spans="2:2" ht="13">
+      <c r="B224" s="6"/>
+    </row>
+    <row r="225" spans="2:2" ht="13">
+      <c r="B225" s="6"/>
+    </row>
+    <row r="226" spans="2:2" ht="13">
+      <c r="B226" s="6"/>
+    </row>
+    <row r="227" spans="2:2" ht="13">
+      <c r="B227" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G71" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G72" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
